--- a/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
+++ b/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidohaakma/Documents/Development/Visual/ds-dictionaries/dictionaries/outcome/1_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FBE5BD-842E-9449-88F6-066DD5D068BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7013B26-4334-4A43-B458-FEBA0C921CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="398">
   <si>
     <t>name</t>
   </si>
@@ -1220,7 +1220,7 @@
     <t>inh_all_sens_IgE_GRASS_</t>
   </si>
   <si>
-    <t>inhalant allergic sensitization to grass, measured by skin prick test</t>
+    <t>inhalant allergic senzitization to grass, measured by IgE</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
@@ -3867,12 +3867,12 @@
         <v>396</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3888,10 +3888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView showGridLines="0" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A261" sqref="A260:XFD261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7527,34 +7527,6 @@
         <v>395</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="B260" s="17">
-        <v>0</v>
-      </c>
-      <c r="C260" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="B261" s="17">
-        <v>1</v>
-      </c>
-      <c r="C261" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="2048"/>

--- a/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
+++ b/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidohaakma/Documents/Development/Visual/ds-dictionaries/dictionaries/outcome/1_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidohaakma/Documents/Development/Source/Visual/ds-dictionaries/dictionaries/outcome/1_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7013B26-4334-4A43-B458-FEBA0C921CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD552F2-2506-A24F-98D6-BD3EB00F4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-6600" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="395">
   <si>
     <t>name</t>
   </si>
@@ -1136,21 +1136,6 @@
     <t>inh_all_sens_SPT_TREE_mix_</t>
   </si>
   <si>
-    <t>matsmo_score</t>
-  </si>
-  <si>
-    <t>matsmo_array</t>
-  </si>
-  <si>
-    <t>matsmo_age_at_dna_methyl</t>
-  </si>
-  <si>
-    <t>matsmo_tissue</t>
-  </si>
-  <si>
-    <t>matsmo_normalisation</t>
-  </si>
-  <si>
     <t>Calculated smoking score using DNAsmokeR</t>
   </si>
   <si>
@@ -1221,6 +1206,12 @@
   </si>
   <si>
     <t>inhalant allergic senzitization to grass, measured by IgE</t>
+  </si>
+  <si>
+    <t>matsmo_score_</t>
+  </si>
+  <si>
+    <t>matsmo_age_at_dna_methyl_</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3794,7 +3785,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3803,26 +3794,26 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
         <v>370</v>
-      </c>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -3831,40 +3822,40 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>377</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
         <v>372</v>
-      </c>
-      <c r="B137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
         <v>373</v>
-      </c>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>12</v>
@@ -3873,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3890,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A261" sqref="A260:XFD261"/>
+    <sheetView showGridLines="0" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B259" sqref="B250:B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7319,7 +7310,7 @@
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B245" s="23">
         <v>1</v>
@@ -7328,12 +7319,12 @@
         <v>0</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B246" s="23">
         <v>2</v>
@@ -7342,12 +7333,12 @@
         <v>0</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B247" s="23">
         <v>1</v>
@@ -7356,12 +7347,12 @@
         <v>0</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B248" s="23">
         <v>2</v>
@@ -7370,12 +7361,12 @@
         <v>0</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B249" s="23">
         <v>3</v>
@@ -7384,12 +7375,12 @@
         <v>0</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B250" s="23">
         <v>0</v>
@@ -7398,12 +7389,12 @@
         <v>0</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B251" s="23">
         <v>1</v>
@@ -7412,12 +7403,12 @@
         <v>0</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B252" s="23">
         <v>2</v>
@@ -7426,12 +7417,12 @@
         <v>0</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B253" s="23">
         <v>3</v>
@@ -7445,7 +7436,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B254" s="23">
         <v>4</v>
@@ -7454,26 +7445,26 @@
         <v>0</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B255" s="23">
+        <v>5</v>
+      </c>
+      <c r="C255" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="B255" s="23">
-        <v>5</v>
-      </c>
-      <c r="C255" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B256" s="23">
         <v>6</v>
@@ -7482,12 +7473,12 @@
         <v>0</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B257" s="23">
         <v>7</v>
@@ -7496,12 +7487,12 @@
         <v>0</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B258" s="23">
         <v>8</v>
@@ -7510,12 +7501,12 @@
         <v>0</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B259" s="23">
         <v>9</v>
@@ -7524,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
+++ b/dictionaries/outcome/1_5/1_5_yearly_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidohaakma/Documents/Development/Source/Visual/ds-dictionaries/dictionaries/outcome/1_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD552F2-2506-A24F-98D6-BD3EB00F4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D7CC3-C81A-4047-9904-361BFA01AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-6600" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,9 +1136,6 @@
     <t>inh_all_sens_SPT_TREE_mix_</t>
   </si>
   <si>
-    <t>Calculated smoking score using DNAsmokeR</t>
-  </si>
-  <si>
     <t>Type of DNA methylation array used to create smoking score</t>
   </si>
   <si>
@@ -1212,6 +1209,9 @@
   </si>
   <si>
     <t>matsmo_age_at_dna_methyl_</t>
+  </si>
+  <si>
+    <t>Calculated smoking score using DNAsmokeR (value ranging between 0 to 1)</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3785,21 +3785,21 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>393</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
+        <v>392</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
-        <v>369</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3808,26 +3808,26 @@
         <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>394</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
+        <v>393</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -3836,12 +3836,12 @@
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -3850,12 +3850,12 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>12</v>
@@ -3864,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B245" s="23">
         <v>1</v>
@@ -7319,12 +7319,12 @@
         <v>0</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B246" s="23">
         <v>2</v>
@@ -7333,12 +7333,12 @@
         <v>0</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B247" s="23">
         <v>1</v>
@@ -7347,12 +7347,12 @@
         <v>0</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B248" s="23">
         <v>2</v>
@@ -7361,12 +7361,12 @@
         <v>0</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B249" s="23">
         <v>3</v>
@@ -7375,26 +7375,26 @@
         <v>0</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B250" s="23">
+        <v>0</v>
+      </c>
+      <c r="C250" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="23" t="s">
         <v>381</v>
-      </c>
-      <c r="B250" s="23">
-        <v>0</v>
-      </c>
-      <c r="C250" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D250" s="23" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B251" s="23">
         <v>1</v>
@@ -7403,12 +7403,12 @@
         <v>0</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B252" s="23">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         <v>0</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B253" s="23">
         <v>3</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B254" s="23">
         <v>4</v>
@@ -7445,12 +7445,12 @@
         <v>0</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B255" s="23">
         <v>5</v>
@@ -7459,12 +7459,12 @@
         <v>0</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B256" s="23">
         <v>6</v>
@@ -7473,12 +7473,12 @@
         <v>0</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B257" s="23">
         <v>7</v>
@@ -7487,12 +7487,12 @@
         <v>0</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B258" s="23">
         <v>8</v>
@@ -7501,12 +7501,12 @@
         <v>0</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B259" s="23">
         <v>9</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
